--- a/WT_mm.xlsx
+++ b/WT_mm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/536388_muni_cz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/536388_muni_cz/Documents/wt_mm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2937" documentId="8_{1C74B243-1BBA-4F6E-8168-57537ED70021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C3CAB0-A840-4871-AB3D-B9421C8AC2E7}"/>
+  <xr:revisionPtr revIDLastSave="3413" documentId="8_{1C74B243-1BBA-4F6E-8168-57537ED70021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A203001-E6E1-4E74-BC8F-14A8B0C728B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2281C84D-9781-4F6A-BBC2-50C525F9B650}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{2281C84D-9781-4F6A-BBC2-50C525F9B650}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
@@ -669,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCD311E-F49E-4D46-9A78-5376B3D5F918}">
   <dimension ref="A1:AG142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R76" sqref="R76"/>
+    <sheetView tabSelected="1" topLeftCell="H53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2121,59 +2117,59 @@
         <v>5</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S22" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="T22" s="1">
         <v>5</v>
       </c>
       <c r="U22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V22">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X22">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AA22">
         <f t="shared" si="8"/>
-        <v>0.2857142857142857</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="AB22">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="AC22">
         <f t="shared" si="10"/>
-        <v>0.2857142857142857</v>
+        <v>0.34210526315789475</v>
       </c>
       <c r="AD22">
         <f t="shared" si="11"/>
-        <v>0.2857142857142857</v>
+        <v>0.26315789473684209</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
@@ -2326,11 +2322,11 @@
         <v>2</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T24" s="1">
         <v>5.7</v>
@@ -2349,27 +2345,27 @@
       </c>
       <c r="X24">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA24">
         <f t="shared" si="8"/>
-        <v>0.14285714285714285</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="AB24">
         <f t="shared" si="9"/>
-        <v>0.21428571428571427</v>
+        <v>0.2</v>
       </c>
       <c r="AC24">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="AD24">
         <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
@@ -3012,11 +3008,11 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T31" s="1">
         <v>8</v>
@@ -3035,27 +3031,27 @@
       </c>
       <c r="X31">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA31">
         <f t="shared" si="8"/>
-        <v>0.41666666666666669</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AB31">
         <f t="shared" si="9"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AC31">
         <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="AD31">
         <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
@@ -3496,17 +3492,17 @@
         <v>2</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="7">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T36" s="1">
         <v>9.6999999999999993</v>
@@ -3517,35 +3513,35 @@
       </c>
       <c r="V36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="8">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA36">
         <f t="shared" ref="AA36:AA44" si="15">U36/Y36</f>
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AB36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AC36">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AD36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.35">
@@ -4277,59 +4273,59 @@
       </c>
       <c r="O44" s="6">
         <f>SUM(O10:O42)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P44" s="6">
         <f>SUM(P10:P42)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q44" s="6">
         <f>SUM(Q10:Q42)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="R44" s="6">
         <f>SUM(R10:R42)</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="S44" s="3">
         <f>SUM(S10:S42)</f>
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="U44" s="9">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V44" s="9">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W44" s="9">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="X44" s="9">
         <f t="shared" si="6"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Y44" s="10">
         <f t="shared" si="7"/>
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="AA44" s="13">
         <f t="shared" si="15"/>
-        <v>0.27586206896551724</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AB44" s="13">
         <f t="shared" si="9"/>
-        <v>0.15763546798029557</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="AC44" s="13">
         <f t="shared" si="10"/>
-        <v>0.23645320197044334</v>
+        <v>0.24888888888888888</v>
       </c>
       <c r="AD44" s="13">
         <f t="shared" si="11"/>
-        <v>0.33004926108374383</v>
+        <v>0.3288888888888889</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.35">
@@ -4583,11 +4579,11 @@
         <v>5</v>
       </c>
       <c r="R52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S52" s="7">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T52" s="1">
         <v>1.3</v>
@@ -4606,11 +4602,11 @@
       </c>
       <c r="X52">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y52" s="11">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z52" s="1">
         <v>1.3</v>
@@ -4625,11 +4621,11 @@
       </c>
       <c r="AC52">
         <f t="shared" ref="AC52:AC85" si="29" xml:space="preserve"> W52 / Y52</f>
-        <v>0.55555555555555558</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="AD52">
         <f t="shared" ref="AD52:AD85" si="30" xml:space="preserve"> X52 / Y52</f>
-        <v>0.44444444444444442</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="AE52" s="1">
         <v>1.3</v>
@@ -4689,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -4699,7 +4695,7 @@
       </c>
       <c r="S53" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T53" s="1">
         <v>1.7</v>
@@ -4710,7 +4706,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <f t="shared" si="24"/>
@@ -4722,7 +4718,7 @@
       </c>
       <c r="Y53" s="11">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z53" s="1">
         <v>1.7</v>
@@ -4733,11 +4729,11 @@
       </c>
       <c r="AB53">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC53">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD53">
         <f t="shared" si="30"/>
@@ -4748,11 +4744,11 @@
       </c>
       <c r="AF53">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG53">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.35">
@@ -4798,73 +4794,73 @@
         <v>2</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S54" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T54" s="1">
         <v>2</v>
       </c>
       <c r="U54">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V54">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X54">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y54" s="11">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54">
         <f t="shared" si="27"/>
-        <v>0.2857142857142857</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="AB54">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AC54">
         <f t="shared" si="29"/>
-        <v>0.5714285714285714</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AD54">
         <f t="shared" si="30"/>
-        <v>0.14285714285714285</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="AE54" s="1">
         <v>2</v>
       </c>
       <c r="AF54">
         <f t="shared" si="31"/>
-        <v>0.2857142857142857</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="AG54">
         <f t="shared" si="32"/>
-        <v>0.71428571428571419</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.35">
@@ -4916,14 +4912,14 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" s="7">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T55" s="1">
         <v>2.2999999999999998</v>
@@ -4938,15 +4934,15 @@
       </c>
       <c r="W55">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X55">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y55" s="11">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z55" s="1">
         <v>2.2999999999999998</v>
@@ -4961,11 +4957,11 @@
       </c>
       <c r="AC55">
         <f t="shared" si="29"/>
-        <v>0.42857142857142855</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AD55">
         <f t="shared" si="30"/>
-        <v>0.5714285714285714</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AE55" s="1">
         <v>2.2999999999999998</v>
@@ -5025,17 +5021,17 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="R56">
         <v>5</v>
-      </c>
-      <c r="R56">
-        <v>2</v>
       </c>
       <c r="S56" s="7">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T56" s="1">
         <v>2.7</v>
@@ -5046,19 +5042,19 @@
       </c>
       <c r="V56">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W56">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X56">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y56" s="11">
         <f t="shared" si="26"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Z56" s="1">
         <v>2.7</v>
@@ -5069,26 +5065,26 @@
       </c>
       <c r="AB56">
         <f t="shared" si="28"/>
-        <v>0.21428571428571427</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="AC56">
         <f t="shared" si="29"/>
-        <v>0.42857142857142855</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="AD56">
         <f t="shared" si="30"/>
-        <v>0.35714285714285715</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="AE56" s="1">
         <v>2.7</v>
       </c>
       <c r="AF56">
         <f t="shared" si="31"/>
-        <v>0.21428571428571427</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="AG56">
         <f t="shared" si="32"/>
-        <v>0.7857142857142857</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.35">
@@ -5137,17 +5133,17 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R57">
         <v>6</v>
       </c>
       <c r="S57" s="7">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T57" s="1">
         <v>3</v>
@@ -5158,11 +5154,11 @@
       </c>
       <c r="V57">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W57">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X57">
         <f t="shared" si="25"/>
@@ -5170,7 +5166,7 @@
       </c>
       <c r="Y57" s="11">
         <f t="shared" si="26"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z57" s="1">
         <v>3</v>
@@ -5181,26 +5177,26 @@
       </c>
       <c r="AB57">
         <f t="shared" si="28"/>
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="AC57">
         <f t="shared" si="29"/>
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="AD57">
         <f t="shared" si="30"/>
-        <v>0.4375</v>
+        <v>0.35</v>
       </c>
       <c r="AE57" s="1">
         <v>3</v>
       </c>
       <c r="AF57">
         <f t="shared" si="31"/>
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="AG57">
         <f t="shared" si="32"/>
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.35">
@@ -5236,11 +5232,11 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" s="7">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" s="1">
         <v>3.3</v>
@@ -5255,11 +5251,11 @@
         <v>2</v>
       </c>
       <c r="R58">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S58" s="7">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T58" s="1">
         <v>3.3</v>
@@ -5278,41 +5274,41 @@
       </c>
       <c r="X58">
         <f t="shared" si="25"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y58" s="11">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z58" s="1">
         <v>3.3</v>
       </c>
       <c r="AA58">
         <f t="shared" si="27"/>
-        <v>0.125</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AB58">
         <f t="shared" si="28"/>
-        <v>0.125</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AC58">
         <f t="shared" si="29"/>
-        <v>8.3333333333333329E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="AD58">
         <f t="shared" si="30"/>
-        <v>0.66666666666666663</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="AE58" s="1">
         <v>3.3</v>
       </c>
       <c r="AF58">
         <f t="shared" si="31"/>
-        <v>0.25</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="AG58">
         <f t="shared" si="32"/>
-        <v>0.75</v>
+        <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.35">
@@ -5345,14 +5341,14 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M59" s="7">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N59" s="1">
         <v>3.7</v>
@@ -5386,45 +5382,45 @@
       </c>
       <c r="W59">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X59">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y59" s="11">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z59" s="1">
         <v>3.7</v>
       </c>
       <c r="AA59">
         <f t="shared" si="27"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AB59">
         <f t="shared" si="28"/>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AC59">
         <f t="shared" si="29"/>
-        <v>0.22222222222222221</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AD59">
         <f t="shared" si="30"/>
-        <v>0.61111111111111116</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE59" s="1">
         <v>3.7</v>
       </c>
       <c r="AF59">
         <f t="shared" si="31"/>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="AG59">
         <f t="shared" si="32"/>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.35">
@@ -5454,89 +5450,89 @@
         <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L60">
         <v>5</v>
       </c>
       <c r="M60" s="7">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N60" s="1">
         <v>4</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q60">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S60" s="7">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="T60" s="1">
         <v>4</v>
       </c>
       <c r="U60">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V60">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W60">
         <f t="shared" si="24"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="X60">
         <f t="shared" si="25"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y60" s="11">
         <f t="shared" si="26"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="Z60" s="1">
         <v>4</v>
       </c>
       <c r="AA60">
         <f t="shared" si="27"/>
-        <v>0.02</v>
+        <v>2.8985507246376812E-2</v>
       </c>
       <c r="AB60">
         <f t="shared" si="28"/>
-        <v>0.1</v>
+        <v>0.15942028985507245</v>
       </c>
       <c r="AC60">
         <f t="shared" si="29"/>
-        <v>0.7</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="AD60">
         <f t="shared" si="30"/>
-        <v>0.18</v>
+        <v>0.20289855072463769</v>
       </c>
       <c r="AE60" s="1">
         <v>4</v>
       </c>
       <c r="AF60">
         <f t="shared" si="31"/>
-        <v>0.12000000000000001</v>
+        <v>0.18840579710144925</v>
       </c>
       <c r="AG60">
         <f t="shared" si="32"/>
-        <v>0.87999999999999989</v>
+        <v>0.81159420289855078</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.35">
@@ -5694,73 +5690,73 @@
         <v>4.7</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S62" s="7">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="T62" s="1">
         <v>4.7</v>
       </c>
       <c r="U62">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="V62">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W62">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X62">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y62" s="11">
         <f t="shared" si="26"/>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="Z62" s="1">
         <v>4.7</v>
       </c>
       <c r="AA62">
         <f t="shared" si="27"/>
-        <v>0.22727272727272727</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="AB62">
         <f t="shared" si="28"/>
-        <v>0.18181818181818182</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="AC62">
         <f t="shared" si="29"/>
-        <v>0.22727272727272727</v>
+        <v>0.18604651162790697</v>
       </c>
       <c r="AD62">
         <f t="shared" si="30"/>
-        <v>0.36363636363636365</v>
+        <v>0.34883720930232559</v>
       </c>
       <c r="AE62" s="1">
         <v>4.7</v>
       </c>
       <c r="AF62">
         <f t="shared" si="31"/>
-        <v>0.40909090909090906</v>
+        <v>0.46511627906976749</v>
       </c>
       <c r="AG62">
         <f t="shared" si="32"/>
-        <v>0.59090909090909094</v>
+        <v>0.53488372093023262</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.35">
@@ -5793,85 +5789,85 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L63">
         <v>7</v>
       </c>
       <c r="M63" s="7">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N63" s="1">
         <v>5</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q63">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S63" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="T63" s="1">
         <v>5</v>
       </c>
       <c r="U63">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V63">
         <v>1</v>
       </c>
       <c r="W63">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="X63">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Y63" s="11">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="Z63" s="1">
         <v>5</v>
       </c>
       <c r="AA63">
         <f t="shared" si="27"/>
-        <v>0.10526315789473684</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="AB63">
         <f t="shared" si="28"/>
-        <v>5.2631578947368418E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="AC63">
         <f t="shared" si="29"/>
-        <v>0.42105263157894735</v>
+        <v>0.38297872340425532</v>
       </c>
       <c r="AD63">
         <f t="shared" si="30"/>
-        <v>0.42105263157894735</v>
+        <v>0.38297872340425532</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
       </c>
       <c r="AF63">
         <f t="shared" si="31"/>
-        <v>0.15789473684210525</v>
+        <v>0.19148936170212766</v>
       </c>
       <c r="AG63">
         <f t="shared" si="32"/>
-        <v>0.84210526315789469</v>
+        <v>0.76595744680851063</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.35">
@@ -5901,89 +5897,89 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M64" s="7">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N64" s="1">
         <v>5.3</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R64">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S64" s="7">
         <f t="shared" si="21"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="T64" s="1">
         <v>5.3</v>
       </c>
       <c r="U64">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W64">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X64">
         <f t="shared" si="25"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Y64" s="11">
         <f t="shared" si="26"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Z64" s="1">
         <v>5.3</v>
       </c>
       <c r="AA64">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="AB64">
         <f t="shared" si="28"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="AC64">
         <f t="shared" si="29"/>
-        <v>0.21428571428571427</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="AD64">
         <f t="shared" si="30"/>
-        <v>0.69047619047619047</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="AE64" s="1">
         <v>5.3</v>
       </c>
       <c r="AF64">
         <f t="shared" si="31"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AG64">
         <f t="shared" si="32"/>
-        <v>0.90476190476190477</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.35">
@@ -6029,27 +6025,27 @@
         <v>5.7</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R65">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S65" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="T65" s="1">
         <v>5.7</v>
       </c>
       <c r="U65">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V65">
         <f t="shared" si="23"/>
@@ -6057,45 +6053,45 @@
       </c>
       <c r="W65">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X65">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y65" s="11">
         <f t="shared" si="26"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Z65" s="1">
         <v>5.7</v>
       </c>
       <c r="AA65">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="AB65">
         <f t="shared" si="28"/>
-        <v>7.1428571428571425E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="AC65">
         <f t="shared" si="29"/>
-        <v>0.21428571428571427</v>
+        <v>0.38709677419354838</v>
       </c>
       <c r="AD65">
         <f t="shared" si="30"/>
-        <v>0.7142857142857143</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="AE65" s="1">
         <v>5.7</v>
       </c>
       <c r="AF65">
         <f t="shared" si="31"/>
-        <v>7.1428571428571425E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="AG65">
         <f t="shared" si="32"/>
-        <v>0.9285714285714286</v>
+        <v>0.90322580645161288</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.35">
@@ -6122,92 +6118,92 @@
         <v>6</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M66" s="7">
         <f t="shared" si="20"/>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N66" s="1">
         <v>6</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P66">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q66">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="R66">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S66" s="7">
         <f t="shared" si="21"/>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="T66" s="1">
         <v>6</v>
       </c>
       <c r="U66">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V66">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W66">
         <f t="shared" si="24"/>
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="X66">
         <f t="shared" si="25"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Y66" s="11">
         <f t="shared" si="26"/>
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="Z66" s="1">
         <v>6</v>
       </c>
       <c r="AA66">
         <f t="shared" si="27"/>
-        <v>7.2463768115942032E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="AB66">
         <f t="shared" si="28"/>
-        <v>0.14492753623188406</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="AC66">
         <f t="shared" si="29"/>
-        <v>0.47826086956521741</v>
+        <v>0.55813953488372092</v>
       </c>
       <c r="AD66">
         <f t="shared" si="30"/>
-        <v>0.30434782608695654</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="AE66" s="1">
         <v>6</v>
       </c>
       <c r="AF66">
         <f t="shared" si="31"/>
-        <v>0.21739130434782611</v>
+        <v>0.18604651162790697</v>
       </c>
       <c r="AG66">
         <f t="shared" si="32"/>
-        <v>0.78260869565217395</v>
+        <v>0.81395348837209303</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">
@@ -6365,73 +6361,73 @@
         <v>6.7</v>
       </c>
       <c r="O68">
+        <v>10</v>
+      </c>
+      <c r="P68">
         <v>9</v>
       </c>
-      <c r="P68">
-        <v>8</v>
-      </c>
       <c r="Q68">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R68">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S68" s="7">
         <f t="shared" si="21"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="T68" s="1">
         <v>6.7</v>
       </c>
       <c r="U68">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V68">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W68">
         <f t="shared" si="24"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="X68">
         <f t="shared" si="25"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Y68" s="11">
         <f t="shared" si="26"/>
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Z68" s="1">
         <v>6.7</v>
       </c>
       <c r="AA68">
         <f t="shared" si="27"/>
-        <v>0.1</v>
+        <v>0.10077519379844961</v>
       </c>
       <c r="AB68">
         <f t="shared" si="28"/>
-        <v>0.125</v>
+        <v>0.12403100775193798</v>
       </c>
       <c r="AC68">
         <f t="shared" si="29"/>
-        <v>0.35</v>
+        <v>0.35658914728682173</v>
       </c>
       <c r="AD68">
         <f t="shared" si="30"/>
-        <v>0.42499999999999999</v>
+        <v>0.41860465116279072</v>
       </c>
       <c r="AE68" s="1">
         <v>6.7</v>
       </c>
       <c r="AF68">
         <f t="shared" si="31"/>
-        <v>0.22500000000000001</v>
+        <v>0.22480620155038761</v>
       </c>
       <c r="AG68">
         <f t="shared" si="32"/>
-        <v>0.77499999999999991</v>
+        <v>0.77519379844961245</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
@@ -6480,17 +6476,17 @@
         <v>14</v>
       </c>
       <c r="P69">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q69">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R69">
         <v>8</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="21"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T69" s="1">
         <v>7</v>
@@ -6501,11 +6497,11 @@
       </c>
       <c r="V69">
         <f t="shared" si="23"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W69">
         <f t="shared" si="24"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X69">
         <f t="shared" si="25"/>
@@ -6513,37 +6509,37 @@
       </c>
       <c r="Y69" s="11">
         <f t="shared" si="26"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z69" s="1">
         <v>7</v>
       </c>
       <c r="AA69">
         <f t="shared" si="27"/>
-        <v>0.15172413793103448</v>
+        <v>0.14864864864864866</v>
       </c>
       <c r="AB69">
         <f t="shared" si="28"/>
-        <v>0.31034482758620691</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="AC69">
         <f t="shared" si="29"/>
-        <v>0.44137931034482758</v>
+        <v>0.44594594594594594</v>
       </c>
       <c r="AD69">
         <f t="shared" si="30"/>
-        <v>9.6551724137931033E-2</v>
+        <v>9.45945945945946E-2</v>
       </c>
       <c r="AE69" s="1">
         <v>7</v>
       </c>
       <c r="AF69">
         <f t="shared" si="31"/>
-        <v>0.46206896551724141</v>
+        <v>0.45945945945945943</v>
       </c>
       <c r="AG69">
         <f t="shared" si="32"/>
-        <v>0.53793103448275859</v>
+        <v>0.54054054054054057</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
@@ -6592,17 +6588,17 @@
         <v>25</v>
       </c>
       <c r="P70">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R70">
         <v>16</v>
       </c>
       <c r="S70" s="7">
         <f t="shared" si="21"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="T70" s="1">
         <v>7.3</v>
@@ -6613,11 +6609,11 @@
       </c>
       <c r="V70">
         <f t="shared" si="23"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W70">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X70">
         <f t="shared" si="25"/>
@@ -6625,37 +6621,37 @@
       </c>
       <c r="Y70" s="11">
         <f t="shared" si="26"/>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z70" s="1">
         <v>7.3</v>
       </c>
       <c r="AA70">
         <f t="shared" si="27"/>
-        <v>0.23776223776223776</v>
+        <v>0.23287671232876711</v>
       </c>
       <c r="AB70">
         <f t="shared" si="28"/>
-        <v>0.5174825174825175</v>
+        <v>0.52054794520547942</v>
       </c>
       <c r="AC70">
         <f t="shared" si="29"/>
-        <v>8.3916083916083919E-2</v>
+        <v>8.9041095890410954E-2</v>
       </c>
       <c r="AD70">
         <f t="shared" si="30"/>
-        <v>0.16083916083916083</v>
+        <v>0.15753424657534246</v>
       </c>
       <c r="AE70" s="1">
         <v>7.3</v>
       </c>
       <c r="AF70">
         <f t="shared" si="31"/>
-        <v>0.75524475524475521</v>
+        <v>0.75342465753424648</v>
       </c>
       <c r="AG70">
         <f t="shared" si="32"/>
-        <v>0.24475524475524474</v>
+        <v>0.24657534246575341</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
@@ -6685,89 +6681,89 @@
         <v>10</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L71">
         <v>11</v>
       </c>
       <c r="M71" s="7">
         <f t="shared" si="20"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N71" s="1">
         <v>7.7</v>
       </c>
       <c r="O71">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q71">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R71">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S71" s="7">
         <f t="shared" si="21"/>
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="T71" s="1">
         <v>7.7</v>
       </c>
       <c r="U71">
         <f t="shared" si="22"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V71">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W71">
         <f t="shared" si="24"/>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="X71">
         <f t="shared" si="25"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Y71" s="11">
         <f t="shared" si="26"/>
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="Z71" s="1">
         <v>7.7</v>
       </c>
       <c r="AA71">
         <f t="shared" si="27"/>
-        <v>0.2696629213483146</v>
+        <v>0.27142857142857141</v>
       </c>
       <c r="AB71">
         <f t="shared" si="28"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.0952380952380956E-2</v>
       </c>
       <c r="AC71">
         <f t="shared" si="29"/>
-        <v>0.2640449438202247</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AD71">
         <f t="shared" si="30"/>
-        <v>0.39325842696629215</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="AE71" s="1">
         <v>7.7</v>
       </c>
       <c r="AF71">
         <f t="shared" si="31"/>
-        <v>0.34269662921348315</v>
+        <v>0.35238095238095235</v>
       </c>
       <c r="AG71">
         <f t="shared" si="32"/>
-        <v>0.65730337078651679</v>
+        <v>0.64761904761904754</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
@@ -6794,92 +6790,92 @@
         <v>8</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K72">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M72" s="7">
         <f t="shared" si="20"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="N72" s="1">
         <v>8</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P72">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q72">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="R72">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="S72" s="7">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="T72" s="1">
         <v>8</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72:U84" si="33">C72 + I72 + O72</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72:V84" si="34">D72 + J72 + P72</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="W72">
         <f t="shared" si="24"/>
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="X72">
         <f t="shared" si="25"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Y72" s="11">
         <f t="shared" ref="Y72:Y84" si="35">G72 + M72 + S72</f>
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="Z72" s="1">
         <v>8</v>
       </c>
       <c r="AA72">
         <f t="shared" si="27"/>
-        <v>4.145077720207254E-2</v>
+        <v>5.3941908713692949E-2</v>
       </c>
       <c r="AB72">
         <f t="shared" si="28"/>
-        <v>0.12953367875647667</v>
+        <v>0.13692946058091288</v>
       </c>
       <c r="AC72">
         <f t="shared" si="29"/>
-        <v>0.49740932642487046</v>
+        <v>0.47302904564315351</v>
       </c>
       <c r="AD72">
         <f t="shared" si="30"/>
-        <v>0.33160621761658032</v>
+        <v>0.33609958506224069</v>
       </c>
       <c r="AE72" s="1">
         <v>8</v>
       </c>
       <c r="AF72">
         <f t="shared" si="31"/>
-        <v>0.17098445595854922</v>
+        <v>0.19087136929460582</v>
       </c>
       <c r="AG72">
         <f t="shared" si="32"/>
-        <v>0.82901554404145084</v>
+        <v>0.8091286307053942</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
@@ -6887,111 +6883,111 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" ref="G73:G83" si="36">SUM(C73:F73)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H73" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J73">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K73">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L73">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="M73" s="7">
         <f t="shared" ref="M73:M83" si="37">SUM(I73:L73)</f>
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="N73" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="O73">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P73">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q73">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="R73">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="S73" s="7">
         <f t="shared" ref="S73:S83" si="38">SUM(O73:R73)</f>
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="T73" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="U73">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V73">
         <f t="shared" si="34"/>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="W73">
         <f t="shared" ref="W73:W84" si="39">E73 + K73 + Q73</f>
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="X73">
         <f t="shared" ref="X73:X84" si="40">F73 + L73 + R73</f>
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="Y73" s="11">
         <f t="shared" si="35"/>
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="Z73" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="AA73">
         <f t="shared" si="27"/>
-        <v>0.12087912087912088</v>
+        <v>7.636363636363637E-2</v>
       </c>
       <c r="AB73">
         <f t="shared" si="28"/>
-        <v>0.38461538461538464</v>
+        <v>0.29090909090909089</v>
       </c>
       <c r="AC73">
         <f t="shared" si="29"/>
-        <v>0.25274725274725274</v>
+        <v>0.2690909090909091</v>
       </c>
       <c r="AD73">
         <f t="shared" si="30"/>
-        <v>0.24175824175824176</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="AE73" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="AF73">
         <f t="shared" si="31"/>
-        <v>0.50549450549450547</v>
+        <v>0.36727272727272725</v>
       </c>
       <c r="AG73">
         <f t="shared" si="32"/>
-        <v>0.49450549450549453</v>
+        <v>0.6327272727272728</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
@@ -7037,35 +7033,35 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="O74">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P74">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q74">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R74">
         <v>54</v>
       </c>
       <c r="S74" s="7">
         <f t="shared" si="38"/>
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="T74" s="1">
         <v>8.6999999999999993</v>
       </c>
       <c r="U74">
         <f t="shared" si="33"/>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V74">
         <f t="shared" si="34"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W74">
         <f t="shared" si="39"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X74">
         <f t="shared" si="40"/>
@@ -7073,37 +7069,37 @@
       </c>
       <c r="Y74" s="11">
         <f t="shared" si="35"/>
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Z74" s="1">
         <v>8.6999999999999993</v>
       </c>
       <c r="AA74">
         <f t="shared" si="27"/>
-        <v>0.33947368421052632</v>
+        <v>0.33591731266149871</v>
       </c>
       <c r="AB74">
         <f t="shared" si="28"/>
-        <v>0.28157894736842104</v>
+        <v>0.28165374677002586</v>
       </c>
       <c r="AC74">
         <f t="shared" si="29"/>
-        <v>0.2</v>
+        <v>0.20671834625322996</v>
       </c>
       <c r="AD74">
         <f t="shared" si="30"/>
-        <v>0.17894736842105263</v>
+        <v>0.17571059431524547</v>
       </c>
       <c r="AE74" s="1">
         <v>8.6999999999999993</v>
       </c>
       <c r="AF74">
         <f t="shared" si="31"/>
-        <v>0.6210526315789473</v>
+        <v>0.61757105943152457</v>
       </c>
       <c r="AG74">
         <f t="shared" si="32"/>
-        <v>0.37894736842105264</v>
+        <v>0.38242894056847543</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
@@ -7130,92 +7126,92 @@
         <v>9</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K75">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M75" s="7">
         <f t="shared" si="37"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N75" s="1">
         <v>9</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P75">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R75">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S75" s="7">
         <f t="shared" si="38"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="T75" s="1">
         <v>9</v>
       </c>
       <c r="U75">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V75">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="W75">
         <f t="shared" si="39"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X75">
         <f t="shared" si="40"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Y75" s="11">
         <f t="shared" si="35"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="Z75" s="1">
         <v>9</v>
       </c>
       <c r="AA75">
         <f t="shared" si="27"/>
-        <v>0.17647058823529413</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="AB75">
         <f t="shared" si="28"/>
-        <v>0.3235294117647059</v>
+        <v>0.29310344827586204</v>
       </c>
       <c r="AC75">
         <f t="shared" si="29"/>
-        <v>0.29411764705882354</v>
+        <v>0.25862068965517243</v>
       </c>
       <c r="AD75">
         <f t="shared" si="30"/>
-        <v>0.20588235294117646</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="AE75" s="1">
         <v>9</v>
       </c>
       <c r="AF75">
         <f t="shared" si="31"/>
-        <v>0.5</v>
+        <v>0.46551724137931033</v>
       </c>
       <c r="AG75">
         <f t="shared" si="32"/>
-        <v>0.5</v>
+        <v>0.53448275862068972</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
@@ -7242,92 +7238,92 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L76">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M76" s="7">
         <f t="shared" si="37"/>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N76" s="1">
         <v>9.3000000000000007</v>
       </c>
       <c r="O76">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P76">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q76">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="R76">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="S76" s="7">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="T76" s="1">
         <v>9.3000000000000007</v>
       </c>
       <c r="U76">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="V76">
         <f t="shared" si="34"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W76">
         <f t="shared" si="39"/>
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="X76">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="Y76" s="11">
         <f t="shared" si="35"/>
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="Z76" s="1">
         <v>9.3000000000000007</v>
       </c>
       <c r="AA76">
         <f t="shared" si="27"/>
-        <v>0.15068493150684931</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="AB76">
         <f t="shared" si="28"/>
-        <v>0.17808219178082191</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="AC76">
         <f t="shared" si="29"/>
-        <v>0.12328767123287671</v>
+        <v>0.25543478260869568</v>
       </c>
       <c r="AD76">
         <f t="shared" si="30"/>
-        <v>0.54794520547945202</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="AE76" s="1">
         <v>9.3000000000000007</v>
       </c>
       <c r="AF76">
         <f t="shared" si="31"/>
-        <v>0.32876712328767121</v>
+        <v>0.26630434782608692</v>
       </c>
       <c r="AG76">
         <f t="shared" si="32"/>
-        <v>0.67123287671232879</v>
+        <v>0.73369565217391308</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
@@ -7357,89 +7353,89 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K77">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M77" s="7">
         <f t="shared" si="37"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N77" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="O77">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P77">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q77">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="R77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S77" s="7">
         <f t="shared" si="38"/>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="T77" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="U77">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V77">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="W77">
         <f t="shared" si="39"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="X77">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y77" s="11">
         <f t="shared" si="35"/>
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="Z77" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="AA77">
         <f t="shared" si="27"/>
-        <v>0.12941176470588237</v>
+        <v>0.11194029850746269</v>
       </c>
       <c r="AB77">
         <f t="shared" si="28"/>
-        <v>0.12941176470588237</v>
+        <v>0.20149253731343283</v>
       </c>
       <c r="AC77">
         <f t="shared" si="29"/>
-        <v>0.70588235294117652</v>
+        <v>0.61194029850746268</v>
       </c>
       <c r="AD77">
         <f t="shared" si="30"/>
-        <v>3.5294117647058823E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="AE77" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="AF77">
         <f t="shared" si="31"/>
-        <v>0.25882352941176473</v>
+        <v>0.31343283582089554</v>
       </c>
       <c r="AG77">
         <f t="shared" si="32"/>
-        <v>0.74117647058823533</v>
+        <v>0.68656716417910446</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
@@ -7488,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -7498,7 +7494,7 @@
       </c>
       <c r="S78" s="7">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
         <v>10</v>
@@ -7509,7 +7505,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78">
         <f t="shared" si="39"/>
@@ -7521,37 +7517,37 @@
       </c>
       <c r="Y78" s="11">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z78" s="1">
         <v>10</v>
       </c>
-      <c r="AA78" t="e">
+      <c r="AA78">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB78" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB78">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC78" t="e">
+        <v>1</v>
+      </c>
+      <c r="AC78">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD78" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD78">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="1">
         <v>10</v>
       </c>
-      <c r="AF78" t="e">
+      <c r="AF78">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG78" t="e">
+        <v>1</v>
+      </c>
+      <c r="AG78">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
@@ -7712,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -7722,7 +7718,7 @@
       </c>
       <c r="S80" s="7">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" s="1">
         <v>10.7</v>
@@ -7733,7 +7729,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80">
         <f t="shared" si="39"/>
@@ -7745,37 +7741,37 @@
       </c>
       <c r="Y80" s="11">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z80" s="1">
         <v>10.7</v>
       </c>
-      <c r="AA80" t="e">
+      <c r="AA80">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB80" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB80">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC80" t="e">
+        <v>1</v>
+      </c>
+      <c r="AC80">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD80" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD80">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="1">
         <v>10.7</v>
       </c>
-      <c r="AF80" t="e">
+      <c r="AF80">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG80" t="e">
+        <v>1</v>
+      </c>
+      <c r="AG80">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
@@ -8147,11 +8143,11 @@
         <v>8</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" s="7">
         <f t="shared" ref="M84" si="42">SUM(I84:L84)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N84" s="1">
         <v>12</v>
@@ -8160,17 +8156,17 @@
         <v>1</v>
       </c>
       <c r="P84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R84">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S84" s="7">
         <f t="shared" ref="S84" si="43">SUM(O84:R84)</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T84" s="1">
         <v>12</v>
@@ -8181,155 +8177,155 @@
       </c>
       <c r="V84">
         <f t="shared" si="34"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W84">
         <f t="shared" si="39"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X84">
         <f t="shared" si="40"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Y84" s="11">
         <f t="shared" si="35"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Z84" s="1">
         <v>12</v>
       </c>
       <c r="AA84">
         <f t="shared" si="27"/>
-        <v>3.2258064516129031E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="AB84">
         <f t="shared" si="28"/>
-        <v>0.22580645161290322</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="AC84">
         <f t="shared" si="29"/>
-        <v>0.66129032258064513</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="AD84">
         <f t="shared" si="30"/>
-        <v>8.0645161290322578E-2</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="AE84" s="1">
         <v>12</v>
       </c>
       <c r="AF84">
         <f t="shared" si="31"/>
-        <v>0.25806451612903225</v>
+        <v>0.23684210526315788</v>
       </c>
       <c r="AG84">
         <f t="shared" si="32"/>
-        <v>0.74193548387096775</v>
+        <v>0.76315789473684215</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C85" s="6">
         <f>SUM(C51:C84)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85" s="6">
         <f>SUM(D51:D84)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E85" s="6">
         <f>SUM(E51:E84)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F85" s="6">
         <f>SUM(F51:F84)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G85" s="19">
         <f>SUM(G51:G84)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I85" s="6">
         <f>SUM(I51:I84)</f>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J85" s="6">
         <f>SUM(J51:J84)</f>
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="K85" s="6">
         <f>SUM(K51:K84)</f>
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="L85" s="6">
         <f>SUM(L51:L83)</f>
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="M85" s="19">
         <f>SUM(M51:M84)</f>
-        <v>545</v>
+        <v>723</v>
       </c>
       <c r="O85" s="6">
         <f>SUM(O51:O84)</f>
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="P85" s="6">
         <f>SUM(P51:P84)</f>
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="Q85" s="6">
         <f>SUM(Q51:Q84)</f>
-        <v>438</v>
+        <v>608</v>
       </c>
       <c r="R85" s="6">
         <f>SUM(R51:R84)</f>
-        <v>396</v>
+        <v>567</v>
       </c>
       <c r="S85" s="19">
         <f>SUM(S51:S84)</f>
-        <v>1401</v>
+        <v>1893</v>
       </c>
       <c r="U85" s="9">
         <f>SUM(U51:U84)</f>
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="V85" s="9">
         <f>SUM(V51:V84)</f>
-        <v>440</v>
+        <v>561</v>
       </c>
       <c r="W85" s="9">
         <f>SUM(W51:W84)</f>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="X85" s="9">
         <f>SUM(X51:X84)</f>
-        <v>567</v>
+        <v>815</v>
       </c>
       <c r="Y85" s="10">
         <f>SUM(Y51:Y84)</f>
-        <v>2010</v>
+        <v>2688</v>
       </c>
       <c r="AA85" s="13">
         <f t="shared" si="27"/>
-        <v>0.17114427860696518</v>
+        <v>0.15476190476190477</v>
       </c>
       <c r="AB85" s="13">
         <f t="shared" si="28"/>
-        <v>0.21890547263681592</v>
+        <v>0.20870535714285715</v>
       </c>
       <c r="AC85" s="13">
         <f t="shared" si="29"/>
-        <v>0.32786069651741295</v>
+        <v>0.3325892857142857</v>
       </c>
       <c r="AD85" s="13">
         <f t="shared" si="30"/>
-        <v>0.282089552238806</v>
+        <v>0.30319940476190477</v>
       </c>
       <c r="AF85" s="13">
         <f t="shared" si="31"/>
-        <v>0.39004975124378111</v>
+        <v>0.36346726190476192</v>
       </c>
       <c r="AG85" s="13">
         <f t="shared" si="32"/>
-        <v>0.60995024875621895</v>
+        <v>0.63578869047619047</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
@@ -8343,15 +8339,15 @@
       </c>
       <c r="AA88">
         <f>_xlfn.AGGREGATE(4, 6, AA51:AA84)</f>
-        <v>0.33947368421052632</v>
+        <v>0.33591731266149871</v>
       </c>
       <c r="AB88">
         <f>_xlfn.AGGREGATE(4, 6, AB51:AB84)</f>
-        <v>0.53333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <f>_xlfn.AGGREGATE(4, 6, AC51:AC84)</f>
-        <v>1</v>
+        <v>0.61194029850746268</v>
       </c>
       <c r="AD88">
         <f>_xlfn.AGGREGATE(4, 6, AD51:AD84)</f>
@@ -8359,7 +8355,7 @@
       </c>
       <c r="AF88">
         <f>_xlfn.AGGREGATE(4, 6, AF51:AF84)</f>
-        <v>0.75524475524475521</v>
+        <v>1</v>
       </c>
       <c r="AG88">
         <f>_xlfn.AGGREGATE(4, 6, AG51:AG84)</f>
@@ -8376,11 +8372,11 @@
       </c>
       <c r="AB89" cm="1">
         <f t="array" ref="AB89">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AB51:AB84), AB51:AB84, 0) + 50)</f>
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="AC89" cm="1">
         <f t="array" ref="AC89">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AC51:AC84), AC51:AC84, 0) + 50)</f>
-        <v>1.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AD89" cm="1">
         <f t="array" ref="AD89">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AC51:AD84), AD51:AD84, 0) + 50)</f>
@@ -8388,7 +8384,7 @@
       </c>
       <c r="AF89" cm="1">
         <f t="array" ref="AF89">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AF51:AF84), AF51:AF84, 0) + 50)</f>
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="AG89" cm="1">
         <f t="array" ref="AG89">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AG51:AG84), AG51:AG84, 0) + 50)</f>
@@ -8406,23 +8402,23 @@
       </c>
       <c r="AA91">
         <f>_xlfn.AGGREGATE(4, 6, AA54:AA84)</f>
-        <v>0.33947368421052632</v>
+        <v>0.33591731266149871</v>
       </c>
       <c r="AB91">
         <f>_xlfn.AGGREGATE(4, 6, AB54:AB84)</f>
-        <v>0.53333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <f>_xlfn.AGGREGATE(4, 6, AC54:AC84)</f>
-        <v>0.70588235294117652</v>
+        <v>0.61194029850746268</v>
       </c>
       <c r="AD91">
         <f>_xlfn.AGGREGATE(4, 6, AD54:AD84)</f>
-        <v>0.7142857142857143</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="AF91">
         <f t="shared" ref="AF91:AG91" si="44">_xlfn.AGGREGATE(4, 6, AF54:AF84)</f>
-        <v>0.75524475524475521</v>
+        <v>1</v>
       </c>
       <c r="AG91">
         <f t="shared" si="44"/>
@@ -8439,7 +8435,7 @@
       </c>
       <c r="AB92" cm="1">
         <f t="array" ref="AB92">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AB54:AB84), AB54:AB84, 0) + 53)</f>
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="AC92" cm="1">
         <f t="array" ref="AC92">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AC54:AC84), AC54:AC84, 0) + 53)</f>
@@ -8447,11 +8443,11 @@
       </c>
       <c r="AD92" cm="1">
         <f t="array" ref="AD92">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AC54:AD84), AD54:AD84, 0) + 53)</f>
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="AF92" cm="1">
         <f t="array" ref="AF92">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AF54:AF84), AF54:AF84, 0) + 53)</f>
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="AG92" cm="1">
         <f t="array" ref="AG92">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AG54:AG84), AG54:AG84, 0) + 53)</f>
@@ -8469,27 +8465,27 @@
       </c>
       <c r="AA94">
         <f>_xlfn.AGGREGATE(4, 6, AA57:AA84)</f>
-        <v>0.33947368421052632</v>
+        <v>0.33591731266149871</v>
       </c>
       <c r="AB94">
         <f>_xlfn.AGGREGATE(4, 6, AB57:AB84)</f>
-        <v>0.53333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <f>_xlfn.AGGREGATE(4, 6, AC57:AC84)</f>
-        <v>0.70588235294117652</v>
+        <v>0.61194029850746268</v>
       </c>
       <c r="AD94">
         <f>_xlfn.AGGREGATE(4, 6, AD57:AD84)</f>
-        <v>0.7142857142857143</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="AF94">
         <f>_xlfn.AGGREGATE(4, 6, AF57:AF84)</f>
-        <v>0.75524475524475521</v>
+        <v>1</v>
       </c>
       <c r="AG94">
         <f>_xlfn.AGGREGATE(4, 6, AG57:AG84)</f>
-        <v>0.9285714285714286</v>
+        <v>0.90322580645161288</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.35">
@@ -8502,7 +8498,7 @@
       </c>
       <c r="AB95" cm="1">
         <f t="array" ref="AB95">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AB57:AB84), AB57:AB84, 0) + 56)</f>
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="AC95" cm="1">
         <f t="array" ref="AC95">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AC57:AC84), AC57:AC84, 0) + 56)</f>
@@ -8510,11 +8506,11 @@
       </c>
       <c r="AD95" cm="1">
         <f t="array" ref="AD95">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AD57:AD84), AD57:AD84, 0) + 56)</f>
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="AF95" cm="1">
         <f t="array" ref="AF95">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AF57:AF84), AF57:AF84, 0) + 56)</f>
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="AG95" cm="1">
         <f t="array" ref="AG95">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AG57:AG84), AG57:AG84, 0) + 56)</f>
@@ -8527,27 +8523,27 @@
       </c>
       <c r="AA97">
         <f>_xlfn.AGGREGATE(1, 6, AA51:AA84)</f>
-        <v>0.10559896404610573</v>
+        <v>0.10116730854286653</v>
       </c>
       <c r="AB97">
         <f t="shared" ref="AB97:AG97" si="45">_xlfn.AGGREGATE(1, 6, AB51:AB84)</f>
-        <v>0.16797286341943105</v>
+        <v>0.2366661238357862</v>
       </c>
       <c r="AC97">
         <f t="shared" si="45"/>
-        <v>0.36941430865460129</v>
+        <v>0.32149074827777463</v>
       </c>
       <c r="AD97">
         <f t="shared" si="45"/>
-        <v>0.35701386387986184</v>
+        <v>0.33925737962726049</v>
       </c>
       <c r="AF97">
         <f t="shared" si="45"/>
-        <v>0.27357182746553677</v>
+        <v>0.33783343237865271</v>
       </c>
       <c r="AG97">
         <f t="shared" si="45"/>
-        <v>0.72642817253446335</v>
+        <v>0.66074812790503523</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.35">
@@ -8791,11 +8787,11 @@
       </c>
       <c r="R102">
         <f t="shared" si="48"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S102" s="13">
         <f t="shared" si="48"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T102" s="1">
         <v>1.3</v>
@@ -8814,11 +8810,11 @@
       </c>
       <c r="X102">
         <f t="shared" si="49"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y102" s="16">
         <f t="shared" si="49"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA102">
         <f t="shared" ref="AA102:AA135" si="50" xml:space="preserve"> U102 / Y102</f>
@@ -8830,11 +8826,11 @@
       </c>
       <c r="AC102">
         <f t="shared" ref="AC102:AC135" si="52" xml:space="preserve"> W102 / Y102</f>
-        <v>0.55555555555555558</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="AD102">
         <f t="shared" ref="AD102:AD135" si="53" xml:space="preserve"> X102 / Y102</f>
-        <v>0.44444444444444442</v>
+        <v>0.47368421052631576</v>
       </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.35">
@@ -8893,7 +8889,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q103">
         <f t="shared" si="48"/>
@@ -8905,7 +8901,7 @@
       </c>
       <c r="S103" s="13">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T103" s="1">
         <v>1.7</v>
@@ -8916,7 +8912,7 @@
       </c>
       <c r="V103">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <f t="shared" si="49"/>
@@ -8928,7 +8924,7 @@
       </c>
       <c r="Y103" s="16">
         <f t="shared" si="49"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA103">
         <f t="shared" si="50"/>
@@ -8936,11 +8932,11 @@
       </c>
       <c r="AB103">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC103">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD103">
         <f t="shared" si="53"/>
@@ -8999,62 +8995,62 @@
       </c>
       <c r="O104">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S104" s="13">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T104" s="1">
         <v>2</v>
       </c>
       <c r="U104">
         <f t="shared" si="49"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V104">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W104">
         <f t="shared" si="49"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X104">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y104" s="16">
         <f t="shared" si="49"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA104">
         <f t="shared" si="50"/>
-        <v>0.2857142857142857</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="AB104">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AC104">
         <f t="shared" si="52"/>
-        <v>0.5714285714285714</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AD104">
         <f t="shared" si="53"/>
-        <v>0.14285714285714285</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.35">
@@ -9117,15 +9113,15 @@
       </c>
       <c r="Q105">
         <f t="shared" si="48"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R105">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S105" s="13">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T105" s="1">
         <v>2.2999999999999998</v>
@@ -9140,15 +9136,15 @@
       </c>
       <c r="W105">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X105">
         <f t="shared" si="49"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y105" s="16">
         <f t="shared" si="49"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA105">
         <f t="shared" si="50"/>
@@ -9160,11 +9156,11 @@
       </c>
       <c r="AC105">
         <f t="shared" si="52"/>
-        <v>0.42857142857142855</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AD105">
         <f t="shared" si="53"/>
-        <v>0.5714285714285714</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.35">
@@ -9223,19 +9219,19 @@
       </c>
       <c r="P106">
         <f t="shared" si="48"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q106">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R106">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S106" s="13">
         <f t="shared" si="48"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T106" s="1">
         <v>2.7</v>
@@ -9246,19 +9242,19 @@
       </c>
       <c r="V106">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W106">
         <f t="shared" si="49"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X106">
         <f t="shared" si="49"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y106" s="16">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AA106">
         <f t="shared" si="50"/>
@@ -9266,15 +9262,15 @@
       </c>
       <c r="AB106">
         <f t="shared" si="51"/>
-        <v>0.21428571428571427</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="AC106">
         <f t="shared" si="52"/>
-        <v>0.42857142857142855</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="AD106">
         <f t="shared" si="53"/>
-        <v>0.35714285714285715</v>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.35">
@@ -9333,11 +9329,11 @@
       </c>
       <c r="P107">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q107">
         <f t="shared" si="48"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R107">
         <f t="shared" si="48"/>
@@ -9345,7 +9341,7 @@
       </c>
       <c r="S107" s="13">
         <f t="shared" si="48"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T107" s="1">
         <v>3</v>
@@ -9356,11 +9352,11 @@
       </c>
       <c r="V107">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W107">
         <f t="shared" si="49"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X107">
         <f t="shared" si="49"/>
@@ -9368,7 +9364,7 @@
       </c>
       <c r="Y107" s="16">
         <f t="shared" si="49"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AA107">
         <f t="shared" si="50"/>
@@ -9376,15 +9372,15 @@
       </c>
       <c r="AB107">
         <f t="shared" si="51"/>
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="AC107">
         <f t="shared" si="52"/>
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="AD107">
         <f t="shared" si="53"/>
-        <v>0.4375</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.35">
@@ -9428,11 +9424,11 @@
       </c>
       <c r="L108">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M108" s="13">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N108" s="1">
         <v>3.3</v>
@@ -9451,11 +9447,11 @@
       </c>
       <c r="R108">
         <f t="shared" si="48"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S108" s="13">
         <f t="shared" si="48"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T108" s="1">
         <v>3.3</v>
@@ -9474,27 +9470,27 @@
       </c>
       <c r="X108">
         <f t="shared" si="49"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y108" s="16">
         <f t="shared" si="49"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA108">
         <f t="shared" si="50"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AB108">
         <f t="shared" si="51"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AC108">
         <f t="shared" si="52"/>
-        <v>0.08</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD108">
         <f t="shared" si="53"/>
-        <v>0.68</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.35">
@@ -9534,15 +9530,15 @@
       </c>
       <c r="K109">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L109">
         <f t="shared" si="47"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M109" s="13">
         <f t="shared" si="47"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N109" s="1">
         <v>3.7</v>
@@ -9580,31 +9576,31 @@
       </c>
       <c r="W109">
         <f t="shared" si="49"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X109">
         <f t="shared" si="49"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y109" s="16">
         <f t="shared" si="49"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AA109">
         <f t="shared" si="50"/>
-        <v>3.7037037037037035E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="AB109">
         <f t="shared" si="51"/>
-        <v>7.407407407407407E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="AC109">
         <f t="shared" si="52"/>
-        <v>0.22222222222222221</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="AD109">
         <f t="shared" si="53"/>
-        <v>0.66666666666666663</v>
+        <v>0.69696969696969702</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.35">
@@ -9640,11 +9636,11 @@
       </c>
       <c r="J110">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K110">
         <f t="shared" si="47"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L110">
         <f t="shared" si="47"/>
@@ -9652,69 +9648,69 @@
       </c>
       <c r="M110" s="13">
         <f t="shared" si="47"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N110" s="1">
         <v>4</v>
       </c>
       <c r="O110">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q110">
         <f t="shared" si="48"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R110">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S110" s="13">
         <f t="shared" si="48"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="T110" s="1">
         <v>4</v>
       </c>
       <c r="U110">
         <f t="shared" si="49"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V110">
         <f t="shared" si="49"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W110">
         <f t="shared" si="49"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="X110">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y110" s="16">
         <f t="shared" si="49"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AA110">
         <f t="shared" si="50"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="AB110">
         <f t="shared" si="51"/>
-        <v>8.4745762711864403E-2</v>
+        <v>0.14102564102564102</v>
       </c>
       <c r="AC110">
         <f t="shared" si="52"/>
-        <v>0.64406779661016944</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="AD110">
         <f t="shared" si="53"/>
-        <v>0.23728813559322035</v>
+        <v>0.24358974358974358</v>
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.35">
@@ -9879,62 +9875,62 @@
       </c>
       <c r="O112">
         <f t="shared" si="56"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P112">
         <f t="shared" si="56"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <f t="shared" si="56"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R112">
         <f t="shared" si="56"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S112" s="13">
         <f t="shared" si="56"/>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="T112" s="1">
         <v>4.7</v>
       </c>
       <c r="U112">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="V112">
         <f t="shared" si="57"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W112">
         <f t="shared" si="57"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X112">
         <f t="shared" si="57"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Y112" s="16">
         <f t="shared" si="57"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="AA112">
         <f t="shared" si="50"/>
-        <v>0.38</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="AB112">
         <f t="shared" si="51"/>
-        <v>0.1</v>
+        <v>9.8591549295774641E-2</v>
       </c>
       <c r="AC112">
         <f t="shared" si="52"/>
-        <v>0.16</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="AD112">
         <f t="shared" si="53"/>
-        <v>0.36</v>
+        <v>0.352112676056338</v>
       </c>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.35">
@@ -9974,7 +9970,7 @@
       </c>
       <c r="K113">
         <f t="shared" si="55"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L113">
         <f t="shared" si="55"/>
@@ -9982,69 +9978,69 @@
       </c>
       <c r="M113" s="13">
         <f t="shared" si="55"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N113" s="1">
         <v>5</v>
       </c>
       <c r="O113">
         <f t="shared" si="56"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P113">
         <f t="shared" si="56"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q113">
         <f t="shared" si="56"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="R113">
         <f t="shared" si="56"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S113" s="13">
         <f t="shared" si="56"/>
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="T113" s="1">
         <v>5</v>
       </c>
       <c r="U113">
         <f t="shared" si="57"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="V113">
         <f t="shared" si="57"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W113">
         <f t="shared" si="57"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="X113">
         <f t="shared" si="57"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Y113" s="16">
         <f t="shared" si="57"/>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AA113">
         <f t="shared" si="50"/>
-        <v>0.2</v>
+        <v>0.21176470588235294</v>
       </c>
       <c r="AB113">
         <f t="shared" si="51"/>
-        <v>0.1</v>
+        <v>7.0588235294117646E-2</v>
       </c>
       <c r="AC113">
         <f t="shared" si="52"/>
-        <v>0.35</v>
+        <v>0.36470588235294116</v>
       </c>
       <c r="AD113">
         <f t="shared" si="53"/>
-        <v>0.35</v>
+        <v>0.32941176470588235</v>
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.35">
@@ -10080,81 +10076,81 @@
       </c>
       <c r="J114">
         <f t="shared" si="55"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K114">
         <f t="shared" si="55"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L114">
         <f t="shared" si="55"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M114" s="13">
         <f t="shared" si="55"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N114" s="1">
         <v>5.3</v>
       </c>
       <c r="O114">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114">
         <f t="shared" si="56"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q114">
         <f t="shared" si="56"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R114">
         <f t="shared" si="56"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S114" s="13">
         <f t="shared" si="56"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="T114" s="1">
         <v>5.3</v>
       </c>
       <c r="U114">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V114">
         <f t="shared" si="57"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W114">
         <f t="shared" si="57"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X114">
         <f t="shared" si="57"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Y114" s="16">
         <f t="shared" si="57"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="AA114">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="AB114">
         <f t="shared" si="51"/>
-        <v>0.15254237288135594</v>
+        <v>0.15068493150684931</v>
       </c>
       <c r="AC114">
         <f t="shared" si="52"/>
-        <v>0.1864406779661017</v>
+        <v>0.17808219178082191</v>
       </c>
       <c r="AD114">
         <f t="shared" si="53"/>
-        <v>0.66101694915254239</v>
+        <v>0.65753424657534243</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.35">
@@ -10209,7 +10205,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="56"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P115">
         <f t="shared" si="56"/>
@@ -10217,22 +10213,22 @@
       </c>
       <c r="Q115">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R115">
         <f t="shared" si="56"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S115" s="13">
         <f t="shared" si="56"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="T115" s="1">
         <v>5.7</v>
       </c>
       <c r="U115">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V115">
         <f t="shared" si="57"/>
@@ -10240,31 +10236,31 @@
       </c>
       <c r="W115">
         <f t="shared" si="57"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X115">
         <f t="shared" si="57"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y115" s="16">
         <f t="shared" si="57"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AA115">
         <f t="shared" si="50"/>
-        <v>7.1428571428571425E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="AB115">
         <f t="shared" si="51"/>
-        <v>0.14285714285714285</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="AC115">
         <f t="shared" si="52"/>
-        <v>0.35714285714285715</v>
+        <v>0.41304347826086957</v>
       </c>
       <c r="AD115">
         <f t="shared" si="53"/>
-        <v>0.42857142857142855</v>
+        <v>0.41304347826086957</v>
       </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.35">
@@ -10296,85 +10292,85 @@
       </c>
       <c r="I116">
         <f t="shared" si="55"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J116">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K116">
         <f t="shared" si="55"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L116">
         <f t="shared" si="55"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M116" s="13">
         <f t="shared" si="55"/>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N116" s="1">
         <v>6</v>
       </c>
       <c r="O116">
         <f t="shared" si="56"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P116">
         <f t="shared" si="56"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q116">
         <f t="shared" si="56"/>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="R116">
         <f t="shared" si="56"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="S116" s="13">
         <f t="shared" si="56"/>
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="T116" s="1">
         <v>6</v>
       </c>
       <c r="U116">
         <f t="shared" si="57"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V116">
         <f t="shared" si="57"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="W116">
         <f t="shared" si="57"/>
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="X116">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Y116" s="16">
         <f t="shared" si="57"/>
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AA116">
         <f t="shared" si="50"/>
-        <v>0.1111111111111111</v>
+        <v>9.2198581560283682E-2</v>
       </c>
       <c r="AB116">
         <f t="shared" si="51"/>
-        <v>0.14814814814814814</v>
+        <v>0.12056737588652482</v>
       </c>
       <c r="AC116">
         <f t="shared" si="52"/>
-        <v>0.43209876543209874</v>
+        <v>0.52482269503546097</v>
       </c>
       <c r="AD116">
         <f t="shared" si="53"/>
-        <v>0.30864197530864196</v>
+        <v>0.26241134751773049</v>
       </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.35">
@@ -10539,62 +10535,62 @@
       </c>
       <c r="O118">
         <f t="shared" si="56"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P118">
         <f t="shared" si="56"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q118">
         <f t="shared" si="56"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R118">
         <f t="shared" si="56"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S118" s="13">
         <f t="shared" si="56"/>
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="T118" s="1">
         <v>6.7</v>
       </c>
       <c r="U118">
         <f t="shared" si="57"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V118">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W118">
         <f t="shared" si="57"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X118">
         <f t="shared" si="57"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Y118" s="16">
         <f t="shared" si="57"/>
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AA118">
         <f t="shared" si="50"/>
-        <v>0.11805555555555555</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="AB118">
         <f t="shared" si="51"/>
-        <v>0.13194444444444445</v>
+        <v>0.13071895424836602</v>
       </c>
       <c r="AC118">
         <f t="shared" si="52"/>
-        <v>0.34027777777777779</v>
+        <v>0.34640522875816993</v>
       </c>
       <c r="AD118">
         <f t="shared" si="53"/>
-        <v>0.40972222222222221</v>
+        <v>0.40522875816993464</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.35">
@@ -10653,11 +10649,11 @@
       </c>
       <c r="P119">
         <f t="shared" si="56"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q119">
         <f t="shared" si="56"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R119">
         <f t="shared" si="56"/>
@@ -10665,7 +10661,7 @@
       </c>
       <c r="S119" s="13">
         <f t="shared" si="56"/>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="T119" s="1">
         <v>7</v>
@@ -10676,11 +10672,11 @@
       </c>
       <c r="V119">
         <f t="shared" si="57"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W119">
         <f t="shared" si="57"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X119">
         <f t="shared" si="57"/>
@@ -10688,23 +10684,23 @@
       </c>
       <c r="Y119" s="16">
         <f t="shared" si="57"/>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AA119">
         <f t="shared" si="50"/>
-        <v>0.16233766233766234</v>
+        <v>0.15923566878980891</v>
       </c>
       <c r="AB119">
         <f t="shared" si="51"/>
-        <v>0.30519480519480519</v>
+        <v>0.30573248407643311</v>
       </c>
       <c r="AC119">
         <f t="shared" si="52"/>
-        <v>0.42857142857142855</v>
+        <v>0.43312101910828027</v>
       </c>
       <c r="AD119">
         <f t="shared" si="53"/>
-        <v>0.1038961038961039</v>
+        <v>0.10191082802547771</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.35">
@@ -10763,11 +10759,11 @@
       </c>
       <c r="P120">
         <f t="shared" si="56"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q120">
         <f t="shared" si="56"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R120">
         <f t="shared" si="56"/>
@@ -10775,7 +10771,7 @@
       </c>
       <c r="S120" s="13">
         <f t="shared" si="56"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="T120" s="1">
         <v>7.3</v>
@@ -10786,11 +10782,11 @@
       </c>
       <c r="V120">
         <f t="shared" si="57"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W120">
         <f t="shared" si="57"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X120">
         <f t="shared" si="57"/>
@@ -10798,23 +10794,23 @@
       </c>
       <c r="Y120" s="16">
         <f t="shared" si="57"/>
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AA120">
         <f t="shared" si="50"/>
-        <v>0.22972972972972974</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="AB120">
         <f t="shared" si="51"/>
-        <v>0.5067567567567568</v>
+        <v>0.50993377483443714</v>
       </c>
       <c r="AC120">
         <f t="shared" si="52"/>
-        <v>0.10135135135135136</v>
+        <v>0.10596026490066225</v>
       </c>
       <c r="AD120">
         <f t="shared" si="53"/>
-        <v>0.16216216216216217</v>
+        <v>0.15894039735099338</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.35">
@@ -10850,11 +10846,11 @@
       </c>
       <c r="J121">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K121">
         <f t="shared" si="59"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L121">
         <f t="shared" si="59"/>
@@ -10862,69 +10858,69 @@
       </c>
       <c r="M121" s="13">
         <f t="shared" si="59"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N121" s="1">
         <v>7.7</v>
       </c>
       <c r="O121">
         <f t="shared" ref="O121:S130" si="60">O30+O71</f>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="P121">
         <f t="shared" si="60"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q121">
         <f t="shared" si="60"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="R121">
         <f t="shared" si="60"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="S121" s="13">
         <f t="shared" si="60"/>
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="T121" s="1">
         <v>7.7</v>
       </c>
       <c r="U121">
         <f t="shared" ref="U121:Y122" si="61">U30+U71</f>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="V121">
         <f t="shared" si="61"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W121">
         <f t="shared" si="61"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="X121">
         <f t="shared" si="61"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Y121" s="16">
         <f t="shared" si="61"/>
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="AA121">
         <f t="shared" si="50"/>
-        <v>0.29381443298969073</v>
+        <v>0.29203539823008851</v>
       </c>
       <c r="AB121">
         <f t="shared" si="51"/>
-        <v>7.7319587628865982E-2</v>
+        <v>8.4070796460176997E-2</v>
       </c>
       <c r="AC121">
         <f t="shared" si="52"/>
-        <v>0.25257731958762886</v>
+        <v>0.25663716814159293</v>
       </c>
       <c r="AD121">
         <f t="shared" si="53"/>
-        <v>0.37628865979381443</v>
+        <v>0.36725663716814161</v>
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.35">
@@ -10956,85 +10952,85 @@
       </c>
       <c r="I122">
         <f t="shared" si="59"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J122">
         <f t="shared" si="59"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K122">
         <f t="shared" si="59"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L122">
         <f t="shared" si="59"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M122" s="13">
         <f t="shared" si="59"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N122" s="1">
         <v>8</v>
       </c>
       <c r="O122">
         <f t="shared" si="60"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P122">
         <f t="shared" si="60"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q122">
         <f t="shared" si="60"/>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="R122">
         <f t="shared" si="60"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S122" s="13">
         <f t="shared" si="60"/>
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="T122" s="1">
         <v>8</v>
       </c>
       <c r="U122">
         <f t="shared" si="61"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="V122">
         <f t="shared" si="61"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="W122">
         <f t="shared" si="61"/>
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="X122">
         <f t="shared" si="61"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="Y122" s="16">
         <f t="shared" si="61"/>
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="AA122">
         <f t="shared" si="50"/>
-        <v>6.3414634146341464E-2</v>
+        <v>7.0866141732283464E-2</v>
       </c>
       <c r="AB122">
         <f t="shared" si="51"/>
-        <v>0.12682926829268293</v>
+        <v>0.13385826771653545</v>
       </c>
       <c r="AC122">
         <f t="shared" si="52"/>
-        <v>0.48780487804878048</v>
+        <v>0.46456692913385828</v>
       </c>
       <c r="AD122">
         <f t="shared" si="53"/>
-        <v>0.32195121951219513</v>
+        <v>0.33070866141732286</v>
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.35">
@@ -11043,108 +11039,108 @@
       </c>
       <c r="C123">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D123">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F123">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="13">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H123" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="I123">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J123">
         <f t="shared" si="59"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K123">
         <f t="shared" si="59"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L123">
         <f t="shared" si="59"/>
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="M123" s="13">
         <f t="shared" si="59"/>
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="N123" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="O123">
         <f t="shared" si="60"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P123">
         <f t="shared" si="60"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q123">
         <f t="shared" si="60"/>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="R123">
         <f t="shared" si="60"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="S123" s="13">
         <f t="shared" si="60"/>
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="T123" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="U123">
         <f t="shared" ref="U123:U134" si="62">C123 + I123 + O123</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V123">
         <f t="shared" ref="V123:V134" si="63">D123 + J123 + P123</f>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="W123">
         <f t="shared" ref="W123:W134" si="64">E123 + K123 + Q123</f>
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="X123">
         <f t="shared" ref="X123:X134" si="65">F123 + L123 + R123</f>
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="Y123" s="16">
         <f t="shared" ref="Y123:Y134" si="66">G123 + M123 + S123</f>
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="AA123">
         <f t="shared" si="50"/>
-        <v>0.12087912087912088</v>
+        <v>7.636363636363637E-2</v>
       </c>
       <c r="AB123">
         <f t="shared" si="51"/>
-        <v>0.38461538461538464</v>
+        <v>0.29090909090909089</v>
       </c>
       <c r="AC123">
         <f t="shared" si="52"/>
-        <v>0.25274725274725274</v>
+        <v>0.2690909090909091</v>
       </c>
       <c r="AD123">
         <f t="shared" si="53"/>
-        <v>0.24175824175824176</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.35">
@@ -11199,15 +11195,15 @@
       </c>
       <c r="O124">
         <f t="shared" si="60"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P124">
         <f t="shared" si="60"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q124">
         <f t="shared" si="60"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R124">
         <f t="shared" si="60"/>
@@ -11215,22 +11211,22 @@
       </c>
       <c r="S124" s="13">
         <f t="shared" si="60"/>
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="T124" s="1">
         <v>8.6999999999999993</v>
       </c>
       <c r="U124">
         <f t="shared" si="62"/>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V124">
         <f t="shared" si="63"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W124">
         <f t="shared" si="64"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X124">
         <f t="shared" si="65"/>
@@ -11238,23 +11234,23 @@
       </c>
       <c r="Y124" s="16">
         <f t="shared" si="66"/>
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AA124">
         <f t="shared" si="50"/>
-        <v>0.3394255874673629</v>
+        <v>0.33589743589743587</v>
       </c>
       <c r="AB124">
         <f t="shared" si="51"/>
-        <v>0.28459530026109658</v>
+        <v>0.2846153846153846</v>
       </c>
       <c r="AC124">
         <f t="shared" si="52"/>
-        <v>0.19843342036553524</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="AD124">
         <f t="shared" si="53"/>
-        <v>0.17754569190600522</v>
+        <v>0.17435897435897435</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.35">
@@ -11286,85 +11282,85 @@
       </c>
       <c r="I125">
         <f t="shared" si="59"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J125">
         <f t="shared" si="59"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K125">
         <f t="shared" si="59"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L125">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M125" s="13">
         <f t="shared" si="59"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N125" s="1">
         <v>9</v>
       </c>
       <c r="O125">
         <f t="shared" si="60"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P125">
         <f t="shared" si="60"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q125">
         <f t="shared" si="60"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R125">
         <f t="shared" si="60"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S125" s="13">
         <f t="shared" si="60"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="T125" s="1">
         <v>9</v>
       </c>
       <c r="U125">
         <f t="shared" si="62"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V125">
         <f t="shared" si="63"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="W125">
         <f t="shared" si="64"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X125">
         <f t="shared" si="65"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Y125" s="16">
         <f t="shared" si="66"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AA125">
         <f t="shared" si="50"/>
-        <v>0.17647058823529413</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="AB125">
         <f t="shared" si="51"/>
-        <v>0.3235294117647059</v>
+        <v>0.29310344827586204</v>
       </c>
       <c r="AC125">
         <f t="shared" si="52"/>
-        <v>0.29411764705882354</v>
+        <v>0.25862068965517243</v>
       </c>
       <c r="AD125">
         <f t="shared" si="53"/>
-        <v>0.20588235294117646</v>
+        <v>0.27586206896551724</v>
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.35">
@@ -11396,85 +11392,85 @@
       </c>
       <c r="I126">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J126">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K126">
         <f t="shared" si="59"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L126">
         <f t="shared" si="59"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M126" s="13">
         <f t="shared" si="59"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N126" s="1">
         <v>9.3000000000000007</v>
       </c>
       <c r="O126">
         <f t="shared" si="60"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P126">
         <f t="shared" si="60"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q126">
         <f t="shared" si="60"/>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="R126">
         <f t="shared" si="60"/>
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="S126" s="13">
         <f t="shared" si="60"/>
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="T126" s="1">
         <v>9.3000000000000007</v>
       </c>
       <c r="U126">
         <f t="shared" si="62"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="V126">
         <f t="shared" si="63"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="W126">
         <f t="shared" si="64"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="X126">
         <f t="shared" si="65"/>
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="Y126" s="16">
         <f t="shared" si="66"/>
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="AA126">
         <f t="shared" si="50"/>
-        <v>0.16470588235294117</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB126">
         <f t="shared" si="51"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AC126">
         <f t="shared" si="52"/>
-        <v>0.12941176470588237</v>
+        <v>0.25</v>
       </c>
       <c r="AD126">
         <f t="shared" si="53"/>
-        <v>0.50588235294117645</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.35">
@@ -11510,81 +11506,81 @@
       </c>
       <c r="J127">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K127">
         <f t="shared" si="59"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L127">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M127" s="13">
         <f t="shared" si="59"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N127" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="O127">
         <f t="shared" si="60"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P127">
         <f t="shared" si="60"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q127">
         <f t="shared" si="60"/>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="R127">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S127" s="13">
         <f t="shared" si="60"/>
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="T127" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="U127">
         <f t="shared" si="62"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V127">
         <f t="shared" si="63"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="W127">
         <f t="shared" si="64"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="X127">
         <f t="shared" si="65"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Y127" s="16">
         <f t="shared" si="66"/>
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="AA127">
         <f t="shared" si="50"/>
-        <v>0.14606741573033707</v>
+        <v>0.12056737588652482</v>
       </c>
       <c r="AB127">
         <f t="shared" si="51"/>
-        <v>0.12359550561797752</v>
+        <v>0.19858156028368795</v>
       </c>
       <c r="AC127">
         <f t="shared" si="52"/>
-        <v>0.6966292134831461</v>
+        <v>0.6028368794326241</v>
       </c>
       <c r="AD127">
         <f t="shared" si="53"/>
-        <v>3.3707865168539325E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.35">
@@ -11643,7 +11639,7 @@
       </c>
       <c r="P128">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128">
         <f t="shared" si="60"/>
@@ -11655,7 +11651,7 @@
       </c>
       <c r="S128" s="13">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T128" s="1">
         <v>10</v>
@@ -11666,7 +11662,7 @@
       </c>
       <c r="V128">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W128">
         <f t="shared" si="64"/>
@@ -11678,23 +11674,23 @@
       </c>
       <c r="Y128" s="16">
         <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AA128" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA128">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB128" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB128">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC128" t="e">
+        <v>1</v>
+      </c>
+      <c r="AC128">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD128" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD128">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.35">
@@ -11863,7 +11859,7 @@
       </c>
       <c r="P130">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
         <f t="shared" si="60"/>
@@ -11875,7 +11871,7 @@
       </c>
       <c r="S130" s="13">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" s="1">
         <v>10.7</v>
@@ -11886,7 +11882,7 @@
       </c>
       <c r="V130">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W130">
         <f t="shared" si="64"/>
@@ -11898,23 +11894,23 @@
       </c>
       <c r="Y130" s="16">
         <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AA130" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA130">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB130" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB130">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC130" t="e">
+        <v>1</v>
+      </c>
+      <c r="AC130">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD130" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD130">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.35">
@@ -12288,11 +12284,11 @@
       </c>
       <c r="L134">
         <f t="shared" si="68"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M134" s="13">
         <f t="shared" si="68"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N134" s="1">
         <v>12</v>
@@ -12303,19 +12299,19 @@
       </c>
       <c r="P134">
         <f t="shared" si="69"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q134">
         <f t="shared" si="69"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R134">
         <f t="shared" si="69"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S134" s="13">
         <f t="shared" si="69"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T134" s="1">
         <v>12</v>
@@ -12326,133 +12322,133 @@
       </c>
       <c r="V134">
         <f t="shared" si="63"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W134">
         <f t="shared" si="64"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X134">
         <f t="shared" si="65"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Y134" s="16">
         <f t="shared" si="66"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AA134">
         <f t="shared" si="50"/>
-        <v>4.7619047619047616E-2</v>
+        <v>3.896103896103896E-2</v>
       </c>
       <c r="AB134">
         <f t="shared" si="51"/>
-        <v>0.22222222222222221</v>
+        <v>0.20779220779220781</v>
       </c>
       <c r="AC134">
         <f t="shared" si="52"/>
-        <v>0.65079365079365081</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AD134">
         <f t="shared" si="53"/>
-        <v>7.9365079365079361E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C135" s="14">
         <f t="shared" si="67"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D135" s="14">
         <f t="shared" si="67"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E135" s="14">
         <f t="shared" si="67"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F135" s="14">
         <f t="shared" si="67"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G135" s="15">
         <f t="shared" si="67"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I135" s="14">
         <f t="shared" si="68"/>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J135" s="14">
         <f t="shared" si="68"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K135" s="14">
         <f t="shared" si="68"/>
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="L135" s="14">
         <f t="shared" si="68"/>
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="M135" s="15">
         <f t="shared" si="68"/>
-        <v>577</v>
+        <v>755</v>
       </c>
       <c r="O135" s="14">
         <f t="shared" si="69"/>
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="P135" s="14">
         <f t="shared" si="69"/>
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="Q135" s="14">
         <f t="shared" si="69"/>
-        <v>477</v>
+        <v>655</v>
       </c>
       <c r="R135" s="14">
         <f t="shared" si="69"/>
-        <v>454</v>
+        <v>632</v>
       </c>
       <c r="S135" s="15">
         <f t="shared" si="69"/>
-        <v>1564</v>
+        <v>2078</v>
       </c>
       <c r="U135" s="17">
         <f>U44+U85</f>
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="V135" s="17">
         <f>V44+V85</f>
-        <v>472</v>
+        <v>596</v>
       </c>
       <c r="W135" s="17">
         <f>W44+W85</f>
-        <v>707</v>
+        <v>950</v>
       </c>
       <c r="X135" s="17">
         <f>X44+X85</f>
-        <v>634</v>
+        <v>889</v>
       </c>
       <c r="Y135" s="18">
         <f>Y44+Y85</f>
-        <v>2213</v>
+        <v>2913</v>
       </c>
       <c r="AA135" s="13">
         <f t="shared" si="50"/>
-        <v>0.1807501129688206</v>
+        <v>0.16340542396155167</v>
       </c>
       <c r="AB135" s="13">
         <f t="shared" si="51"/>
-        <v>0.21328513330320831</v>
+        <v>0.20460006865774116</v>
       </c>
       <c r="AC135" s="13">
         <f t="shared" si="52"/>
-        <v>0.31947582467239044</v>
+        <v>0.32612427051150017</v>
       </c>
       <c r="AD135" s="13">
         <f t="shared" si="53"/>
-        <v>0.28648892905558065</v>
+        <v>0.30518365945760384</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.35">
@@ -12461,14 +12457,14 @@
       </c>
       <c r="AB136">
         <f xml:space="preserve"> AA135 + AB135</f>
-        <v>0.39403524627202891</v>
+        <v>0.36800549261929283</v>
       </c>
       <c r="AC136" t="s">
         <v>22</v>
       </c>
       <c r="AD136">
         <f xml:space="preserve"> AC135 + AD135</f>
-        <v>0.60596475372797109</v>
+        <v>0.63130792996910401</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.35">
@@ -12482,15 +12478,15 @@
       </c>
       <c r="AA138">
         <f>_xlfn.AGGREGATE(4, 6, AA101:AA134)</f>
-        <v>0.38</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="AB138">
         <f>_xlfn.AGGREGATE(4, 6, AB101:AB134)</f>
-        <v>0.53333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AC138">
         <f>_xlfn.AGGREGATE(4, 6, AC101:AC134)</f>
-        <v>1</v>
+        <v>0.6028368794326241</v>
       </c>
       <c r="AD138">
         <f>_xlfn.AGGREGATE(4, 6, AD101:AD134)</f>
@@ -12507,11 +12503,11 @@
       </c>
       <c r="AB139" cm="1">
         <f t="array" ref="AB139">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AB101:AB134), AB101:AB134, 0) + 100)</f>
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="AC139" cm="1">
         <f t="array" ref="AC139">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AC101:AC134), AC101:AC134, 0) + 100)</f>
-        <v>1.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AD139" cm="1">
         <f t="array" ref="AD139">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AC101:AD134), AD101:AD134, 0) + 100)</f>
@@ -12529,19 +12525,19 @@
       </c>
       <c r="AA141">
         <f>_xlfn.AGGREGATE(4, 6, AA104:AA134)</f>
-        <v>0.38</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="AB141">
         <f>_xlfn.AGGREGATE(4, 6, AB104:AB134)</f>
-        <v>0.53333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <f>_xlfn.AGGREGATE(4, 6, AC104:AC134)</f>
-        <v>0.6966292134831461</v>
+        <v>0.6028368794326241</v>
       </c>
       <c r="AD141">
         <f>_xlfn.AGGREGATE(4, 6, AD104:AD134)</f>
-        <v>0.68</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.35">
@@ -12554,7 +12550,7 @@
       </c>
       <c r="AB142" cm="1">
         <f t="array" ref="AB142">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AB104:AB134), AB104:AB134, 0) + 103)</f>
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="AC142" cm="1">
         <f t="array" ref="AC142">INDEX(A:A, _xlfn.XMATCH(_xlfn.AGGREGATE(4, 6, AC104:AC134), AC104:AC134, 0) + 103)</f>
